--- a/Documents/DIYANA/DIGESTION/RB & IQC/RB & IQC PIL 120924.xlsx
+++ b/Documents/DIYANA/DIGESTION/RB & IQC/RB & IQC PIL 120924.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gunasama\Documents\DIYANA\DIGESTION\RB &amp; IQC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCD09E4B-CE24-4743-B3B3-0EFB40A33665}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20B9CF41-E120-4EB6-89B7-E79DCE6C6E3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{F2413BE7-6F11-422B-B3D0-49B7FEF2D3D4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F2413BE7-6F11-422B-B3D0-49B7FEF2D3D4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="60">
   <si>
     <t xml:space="preserve">UNIT ANALISIS TRADISIONAL </t>
   </si>
@@ -194,13 +194,61 @@
     <t>K55266610321</t>
   </si>
   <si>
-    <t>RB ID: RB GH A,B 270824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  09/09/2024</t>
-  </si>
-  <si>
-    <t>XP 205 DR</t>
+    <t>RB GH A</t>
+  </si>
+  <si>
+    <t>RB GH B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IQC PIL BLK </t>
+  </si>
+  <si>
+    <t>IQC PIL A</t>
+  </si>
+  <si>
+    <t>IQC PIL B</t>
+  </si>
+  <si>
+    <t>IQC PIL 1 120924</t>
+  </si>
+  <si>
+    <t>IQC PIL 2 120924</t>
+  </si>
+  <si>
+    <t>IQC PIL 3 120924</t>
+  </si>
+  <si>
+    <t>IQC PIL 4 120924</t>
+  </si>
+  <si>
+    <t>IQC PIL 5 120924</t>
+  </si>
+  <si>
+    <t>IQC PIL 6 120924</t>
+  </si>
+  <si>
+    <t>IQC PIL 7 120924</t>
+  </si>
+  <si>
+    <t>IQC PIL 8 120924</t>
+  </si>
+  <si>
+    <t>IQC PIL 9 120924</t>
+  </si>
+  <si>
+    <t>IQC PIL 10 120924</t>
+  </si>
+  <si>
+    <t>2024080260 AR,CD</t>
+  </si>
+  <si>
+    <t>2024080260 BR,CD</t>
+  </si>
+  <si>
+    <t>2024080260 CR,CD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  12/09/2024</t>
   </si>
   <si>
     <r>
@@ -211,6 +259,45 @@
         <family val="2"/>
       </rPr>
       <t>☐</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Book Antiqua"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Microwave   </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Book Antiqua"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">            </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Book Antiqua"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> ( Kaedah   A / B / C / D )</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+      </rPr>
+      <t>☑</t>
     </r>
     <r>
       <rPr>
@@ -229,7 +316,7 @@
         <rFont val="Book Antiqua"/>
         <family val="1"/>
       </rPr>
-      <t xml:space="preserve">     </t>
+      <t xml:space="preserve">   GH 1   </t>
     </r>
     <r>
       <rPr>
@@ -238,71 +325,17 @@
         <rFont val="Book Antiqua"/>
         <family val="1"/>
       </rPr>
-      <t xml:space="preserve">    ( Kaedah F )</t>
+      <t xml:space="preserve">  ( Kaedah F )</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">  IQC Blank ID :           IQC POW BLK 090924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  IQC A ID        :            IQC POW A 090924     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">  IQC B ID        :             IQC POW B 090924  </t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Mix standard ID:   TRAD  </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Book Antiqua"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">090924   </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Segoe UI Symbol"/>
-        <family val="2"/>
-      </rPr>
-      <t>☑</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Book Antiqua"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> Microwave   </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Book Antiqua"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">  T2,T4  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Book Antiqua"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> ( Kaedah   A / B / C / D )</t>
-    </r>
+    <t>PG 603 S</t>
+  </si>
+  <si>
+    <t>RB ID: RB GH A,B 120924</t>
+  </si>
+  <si>
+    <t>NA</t>
   </si>
   <si>
     <r>
@@ -310,12 +343,12 @@
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
+        <sz val="9"/>
         <color theme="1"/>
         <rFont val="Segoe UI Symbol"/>
         <family val="2"/>
       </rPr>
-      <t>☑</t>
+      <t>☐</t>
     </r>
     <r>
       <rPr>
@@ -328,12 +361,12 @@
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
+        <sz val="9"/>
         <color theme="1"/>
         <rFont val="Segoe UI Symbol"/>
         <family val="2"/>
       </rPr>
-      <t>☑</t>
+      <t>☐</t>
     </r>
     <r>
       <rPr>
@@ -351,7 +384,7 @@
         <rFont val="Segoe UI Symbol"/>
         <family val="2"/>
       </rPr>
-      <t>☐</t>
+      <t>☑</t>
     </r>
     <r>
       <rPr>
@@ -402,58 +435,28 @@
     </r>
   </si>
   <si>
-    <t>RB GH A</t>
-  </si>
-  <si>
-    <t>RB GH B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IQC PIL BLK </t>
-  </si>
-  <si>
-    <t>IQC PIL A</t>
-  </si>
-  <si>
-    <t>IQC PIL B</t>
-  </si>
-  <si>
-    <t>IQC PIL 1 120924</t>
-  </si>
-  <si>
-    <t>IQC PIL 2 120924</t>
-  </si>
-  <si>
-    <t>IQC PIL 3 120924</t>
-  </si>
-  <si>
-    <t>IQC PIL 4 120924</t>
-  </si>
-  <si>
-    <t>IQC PIL 5 120924</t>
-  </si>
-  <si>
-    <t>IQC PIL 6 120924</t>
-  </si>
-  <si>
-    <t>IQC PIL 7 120924</t>
-  </si>
-  <si>
-    <t>IQC PIL 8 120924</t>
-  </si>
-  <si>
-    <t>IQC PIL 9 120924</t>
-  </si>
-  <si>
-    <t>IQC PIL 10 120924</t>
-  </si>
-  <si>
-    <t>2024080260 AR,CD</t>
-  </si>
-  <si>
-    <t>2024080260 BR,CD</t>
-  </si>
-  <si>
-    <t>2024080260 CR,CD</t>
+    <t xml:space="preserve">  IQC Blank ID :           IQC PIL BLK 120924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  IQC A ID        :            IQC PIL A 120924     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  IQC B ID        :             IQC PIL B 120924  </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Mix standard ID:   TRAD  </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Book Antiqua"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">130924   </t>
+    </r>
   </si>
 </sst>
 </file>
@@ -463,7 +466,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -568,6 +571,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Segoe UI Symbol"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -846,113 +855,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="12"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="16"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="18"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -963,6 +885,27 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -978,14 +921,80 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="12"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="16"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="18"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1934,14 +1943,14 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>609157</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>66454</xdr:rowOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>222318</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>121831</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>276890</xdr:rowOff>
+      <xdr:rowOff>190299</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1956,8 +1965,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5703924" y="4042588"/>
-          <a:ext cx="199360" cy="210436"/>
+          <a:off x="5700702" y="3980363"/>
+          <a:ext cx="196743" cy="210436"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1985,7 +1994,10 @@
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
         <a:lstStyle/>
         <a:p>
-          <a:endParaRPr lang="en-MY" sz="1100"/>
+          <a:r>
+            <a:rPr lang="en-MY" sz="1100"/>
+            <a:t>g</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2057,14 +2069,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>85987</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>328446</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>9464</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>48732</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>195942</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>90014</xdr:rowOff>
     </xdr:to>
@@ -2081,7 +2093,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5177532" y="3767509"/>
+          <a:off x="4666651" y="3767509"/>
           <a:ext cx="1885064" cy="323005"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2111,8 +2123,12 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
+            <a:rPr lang="en-MY" sz="1100" u="none"/>
+            <a:t>RB GH A </a:t>
+          </a:r>
+          <a:r>
             <a:rPr lang="en-MY" sz="1100" u="sng"/>
-            <a:t>50.184</a:t>
+            <a:t>100.126</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -2122,59 +2138,66 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>363679</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>25977</xdr:rowOff>
+      <xdr:colOff>329044</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>225137</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>528205</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>164523</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>196540</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>305687</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="Oval 6">
+        <xdr:cNvPr id="6" name="TextBox 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41910392-AFE3-8769-A65E-726CD174F731}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D21DD636-9EC2-4CEE-9BD6-E0473EB6DC0E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvSpPr/>
+        <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4701884" y="969818"/>
-          <a:ext cx="164526" cy="138546"/>
+          <a:off x="4667249" y="3983182"/>
+          <a:ext cx="1885064" cy="323005"/>
         </a:xfrm>
-        <a:prstGeom prst="ellipse">
+        <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
         </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
         </a:fillRef>
         <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
+          <a:scrgbClr r="0" g="0" b="0"/>
         </a:effectRef>
         <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
+          <a:schemeClr val="dk1"/>
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
+          <a:r>
+            <a:rPr lang="en-MY" sz="1100" u="none"/>
+            <a:t>RB GH B </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-MY" sz="1100" u="sng"/>
+            <a:t>100.058</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2482,8 +2505,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54A4C204-5140-4A19-BEE4-C842A1DA29A4}">
   <dimension ref="A1:H36"/>
   <sheetViews>
-    <sheetView view="pageLayout" zoomScale="110" zoomScaleNormal="100" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A15" zoomScale="110" zoomScaleNormal="100" zoomScalePageLayoutView="110" workbookViewId="0">
+      <selection activeCell="L32" sqref="L32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2498,98 +2521,98 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="33"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="60"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="36"/>
+      <c r="B2" s="62"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="63"/>
     </row>
     <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="39" t="s">
+      <c r="A3" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="40"/>
-      <c r="C3" s="48" t="s">
+      <c r="B3" s="67"/>
+      <c r="C3" s="74" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="48"/>
+      <c r="D3" s="74"/>
+      <c r="E3" s="74"/>
+      <c r="F3" s="74"/>
+      <c r="G3" s="74"/>
+      <c r="H3" s="74"/>
     </row>
     <row r="4" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="39" t="s">
+      <c r="A4" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="40"/>
-      <c r="C4" s="49" t="s">
-        <v>32</v>
-      </c>
-      <c r="D4" s="49"/>
-      <c r="E4" s="49"/>
-      <c r="F4" s="49"/>
-      <c r="G4" s="49"/>
-      <c r="H4" s="49"/>
+      <c r="B4" s="67"/>
+      <c r="C4" s="75" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="75"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="41" t="s">
+      <c r="A5" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="42"/>
-      <c r="C5" s="73" t="s">
-        <v>39</v>
-      </c>
-      <c r="D5" s="74"/>
-      <c r="E5" s="74"/>
-      <c r="F5" s="74"/>
-      <c r="G5" s="74"/>
-      <c r="H5" s="75"/>
+      <c r="B5" s="69"/>
+      <c r="C5" s="51" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5" s="52"/>
+      <c r="E5" s="52"/>
+      <c r="F5" s="52"/>
+      <c r="G5" s="52"/>
+      <c r="H5" s="53"/>
     </row>
     <row r="6" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="43" t="s">
+      <c r="A6" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="44"/>
-      <c r="C6" s="51" t="s">
-        <v>34</v>
-      </c>
-      <c r="D6" s="52"/>
-      <c r="E6" s="52"/>
-      <c r="F6" s="52"/>
-      <c r="G6" s="52"/>
-      <c r="H6" s="53"/>
+      <c r="B6" s="71"/>
+      <c r="C6" s="77" t="s">
+        <v>51</v>
+      </c>
+      <c r="D6" s="78"/>
+      <c r="E6" s="78"/>
+      <c r="F6" s="78"/>
+      <c r="G6" s="78"/>
+      <c r="H6" s="79"/>
     </row>
     <row r="7" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="39" t="s">
+      <c r="A7" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="40"/>
-      <c r="C7" s="50" t="s">
-        <v>33</v>
-      </c>
-      <c r="D7" s="50"/>
-      <c r="E7" s="50"/>
-      <c r="F7" s="50"/>
-      <c r="G7" s="50"/>
-      <c r="H7" s="50"/>
+      <c r="B7" s="67"/>
+      <c r="C7" s="76" t="s">
+        <v>52</v>
+      </c>
+      <c r="D7" s="76"/>
+      <c r="E7" s="76"/>
+      <c r="F7" s="76"/>
+      <c r="G7" s="76"/>
+      <c r="H7" s="76"/>
     </row>
     <row r="8" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
@@ -2605,7 +2628,7 @@
     </row>
     <row r="10" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="B10" s="4"/>
     </row>
@@ -2616,58 +2639,58 @@
       <c r="B11" s="24">
         <v>1123090</v>
       </c>
-      <c r="C11" s="45" t="s">
+      <c r="C11" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="45"/>
+      <c r="D11" s="35"/>
     </row>
     <row r="12" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="46" t="s">
+      <c r="A12" s="72" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="37" t="s">
+      <c r="B12" s="64" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="45" t="s">
+      <c r="C12" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="45"/>
+      <c r="D12" s="35"/>
     </row>
     <row r="13" spans="1:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="47"/>
-      <c r="B13" s="38"/>
-      <c r="C13" s="76" t="s">
+      <c r="A13" s="73"/>
+      <c r="B13" s="65"/>
+      <c r="C13" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="D13" s="76"/>
+      <c r="D13" s="54"/>
     </row>
     <row r="14" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="25">
-        <v>4122020</v>
-      </c>
-      <c r="C14" s="76"/>
-      <c r="D14" s="76"/>
+      <c r="B14" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="C14" s="54"/>
+      <c r="D14" s="54"/>
     </row>
     <row r="15" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="67"/>
+      <c r="A15" s="36"/>
       <c r="B15" s="5"/>
-      <c r="C15" s="45" t="s">
+      <c r="C15" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="45"/>
-      <c r="E15" s="45"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="35"/>
     </row>
     <row r="16" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="67"/>
+      <c r="A16" s="36"/>
       <c r="B16" s="5"/>
-      <c r="C16" s="72" t="s">
+      <c r="C16" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="72"/>
-      <c r="E16" s="72"/>
+      <c r="D16" s="50"/>
+      <c r="E16" s="50"/>
       <c r="F16" s="1"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -2683,11 +2706,11 @@
       <c r="H17" s="1"/>
     </row>
     <row r="18" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="67" t="s">
-        <v>38</v>
-      </c>
-      <c r="B18" s="67"/>
-      <c r="C18" s="67"/>
+      <c r="A18" s="36" t="s">
+        <v>59</v>
+      </c>
+      <c r="B18" s="36"/>
+      <c r="C18" s="36"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
@@ -2695,35 +2718,35 @@
       <c r="H18" s="1"/>
     </row>
     <row r="19" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="B19" s="45"/>
-      <c r="C19" s="45"/>
-      <c r="D19" s="45"/>
-      <c r="E19" s="45"/>
-      <c r="F19" s="45"/>
-      <c r="G19" s="45"/>
-      <c r="H19" s="45"/>
+      <c r="A19" s="35" t="s">
+        <v>55</v>
+      </c>
+      <c r="B19" s="35"/>
+      <c r="C19" s="35"/>
+      <c r="D19" s="35"/>
+      <c r="E19" s="35"/>
+      <c r="F19" s="35"/>
+      <c r="G19" s="35"/>
+      <c r="H19" s="35"/>
     </row>
     <row r="20" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="63"/>
-      <c r="B20" s="64"/>
-      <c r="C20" s="65"/>
-      <c r="D20" s="69" t="s">
-        <v>35</v>
-      </c>
-      <c r="E20" s="70"/>
-      <c r="F20" s="70"/>
-      <c r="G20" s="70"/>
-      <c r="H20" s="71"/>
+      <c r="A20" s="31"/>
+      <c r="B20" s="32"/>
+      <c r="C20" s="33"/>
+      <c r="D20" s="40" t="s">
+        <v>56</v>
+      </c>
+      <c r="E20" s="41"/>
+      <c r="F20" s="41"/>
+      <c r="G20" s="41"/>
+      <c r="H20" s="42"/>
     </row>
     <row r="21" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="66" t="s">
+      <c r="A21" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="B21" s="67"/>
-      <c r="C21" s="68"/>
+      <c r="B21" s="36"/>
+      <c r="C21" s="49"/>
       <c r="D21" s="12" t="s">
         <v>20</v>
       </c>
@@ -2733,9 +2756,9 @@
       <c r="H21" s="8"/>
     </row>
     <row r="22" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="59"/>
-      <c r="B22" s="45"/>
-      <c r="C22" s="60"/>
+      <c r="A22" s="34"/>
+      <c r="B22" s="35"/>
+      <c r="C22" s="37"/>
       <c r="D22" s="9"/>
       <c r="E22" s="6"/>
       <c r="F22" s="1"/>
@@ -2743,53 +2766,53 @@
       <c r="H22" s="8"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="59" t="s">
+      <c r="A23" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="B23" s="45"/>
-      <c r="C23" s="60"/>
-      <c r="D23" s="59" t="s">
+      <c r="B23" s="35"/>
+      <c r="C23" s="37"/>
+      <c r="D23" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="E23" s="45"/>
-      <c r="F23" s="45"/>
+      <c r="E23" s="35"/>
+      <c r="F23" s="35"/>
       <c r="G23" s="1"/>
       <c r="H23" s="8"/>
     </row>
     <row r="24" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="54" t="s">
+      <c r="A24" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="B24" s="55"/>
-      <c r="C24" s="56"/>
-      <c r="D24" s="77" t="s">
+      <c r="B24" s="44"/>
+      <c r="C24" s="45"/>
+      <c r="D24" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="E24" s="78"/>
-      <c r="F24" s="78"/>
-      <c r="G24" s="57">
-        <v>50.094000000000001</v>
-      </c>
-      <c r="H24" s="79"/>
+      <c r="E24" s="39"/>
+      <c r="F24" s="39"/>
+      <c r="G24" s="46">
+        <v>100.125</v>
+      </c>
+      <c r="H24" s="47"/>
     </row>
     <row r="25" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="63"/>
-      <c r="B25" s="64"/>
-      <c r="C25" s="65"/>
-      <c r="D25" s="69" t="s">
-        <v>36</v>
-      </c>
-      <c r="E25" s="70"/>
-      <c r="F25" s="70"/>
-      <c r="G25" s="70"/>
-      <c r="H25" s="71"/>
+      <c r="A25" s="31"/>
+      <c r="B25" s="32"/>
+      <c r="C25" s="33"/>
+      <c r="D25" s="40" t="s">
+        <v>57</v>
+      </c>
+      <c r="E25" s="41"/>
+      <c r="F25" s="41"/>
+      <c r="G25" s="41"/>
+      <c r="H25" s="42"/>
     </row>
     <row r="26" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="66" t="s">
+      <c r="A26" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="B26" s="67"/>
-      <c r="C26" s="68"/>
+      <c r="B26" s="36"/>
+      <c r="C26" s="49"/>
       <c r="D26" s="12" t="s">
         <v>20</v>
       </c>
@@ -2799,9 +2822,9 @@
       <c r="H26" s="8"/>
     </row>
     <row r="27" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="59"/>
-      <c r="B27" s="45"/>
-      <c r="C27" s="60"/>
+      <c r="A27" s="34"/>
+      <c r="B27" s="35"/>
+      <c r="C27" s="37"/>
       <c r="D27" s="9"/>
       <c r="E27" s="6"/>
       <c r="F27" s="1"/>
@@ -2809,53 +2832,53 @@
       <c r="H27" s="8"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="59" t="s">
+      <c r="A28" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="B28" s="45"/>
-      <c r="C28" s="60"/>
-      <c r="D28" s="59" t="s">
+      <c r="B28" s="35"/>
+      <c r="C28" s="37"/>
+      <c r="D28" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="E28" s="45"/>
-      <c r="F28" s="45"/>
+      <c r="E28" s="35"/>
+      <c r="F28" s="35"/>
       <c r="G28" s="1"/>
       <c r="H28" s="8"/>
     </row>
     <row r="29" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="54" t="s">
+      <c r="A29" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="B29" s="55"/>
-      <c r="C29" s="56"/>
-      <c r="D29" s="54" t="s">
+      <c r="B29" s="44"/>
+      <c r="C29" s="45"/>
+      <c r="D29" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="E29" s="55"/>
-      <c r="F29" s="55"/>
-      <c r="G29" s="61">
-        <v>50.085999999999999</v>
-      </c>
-      <c r="H29" s="62"/>
+      <c r="E29" s="44"/>
+      <c r="F29" s="44"/>
+      <c r="G29" s="56">
+        <v>100.02500000000001</v>
+      </c>
+      <c r="H29" s="57"/>
     </row>
     <row r="30" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="63"/>
-      <c r="B30" s="64"/>
-      <c r="C30" s="65"/>
-      <c r="D30" s="69" t="s">
-        <v>37</v>
-      </c>
-      <c r="E30" s="70"/>
-      <c r="F30" s="70"/>
-      <c r="G30" s="70"/>
-      <c r="H30" s="71"/>
+      <c r="A30" s="31"/>
+      <c r="B30" s="32"/>
+      <c r="C30" s="33"/>
+      <c r="D30" s="40" t="s">
+        <v>58</v>
+      </c>
+      <c r="E30" s="41"/>
+      <c r="F30" s="41"/>
+      <c r="G30" s="41"/>
+      <c r="H30" s="42"/>
     </row>
     <row r="31" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="66" t="s">
+      <c r="A31" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="B31" s="67"/>
-      <c r="C31" s="68"/>
+      <c r="B31" s="36"/>
+      <c r="C31" s="49"/>
       <c r="D31" s="12" t="s">
         <v>20</v>
       </c>
@@ -2865,9 +2888,9 @@
       <c r="H31" s="8"/>
     </row>
     <row r="32" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="59"/>
-      <c r="B32" s="45"/>
-      <c r="C32" s="60"/>
+      <c r="A32" s="34"/>
+      <c r="B32" s="35"/>
+      <c r="C32" s="37"/>
       <c r="D32" s="9"/>
       <c r="E32" s="6"/>
       <c r="F32" s="1"/>
@@ -2875,34 +2898,34 @@
       <c r="H32" s="8"/>
     </row>
     <row r="33" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="59" t="s">
+      <c r="A33" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="B33" s="45"/>
-      <c r="C33" s="60"/>
-      <c r="D33" s="59" t="s">
+      <c r="B33" s="35"/>
+      <c r="C33" s="37"/>
+      <c r="D33" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="E33" s="45"/>
-      <c r="F33" s="45"/>
+      <c r="E33" s="35"/>
+      <c r="F33" s="35"/>
       <c r="G33" s="1"/>
       <c r="H33" s="8"/>
     </row>
     <row r="34" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="54" t="s">
+      <c r="A34" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="B34" s="55"/>
-      <c r="C34" s="56"/>
-      <c r="D34" s="54" t="s">
+      <c r="B34" s="44"/>
+      <c r="C34" s="45"/>
+      <c r="D34" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="E34" s="55"/>
-      <c r="F34" s="55"/>
-      <c r="G34" s="57">
-        <v>50.018999999999998</v>
-      </c>
-      <c r="H34" s="58"/>
+      <c r="E34" s="44"/>
+      <c r="F34" s="44"/>
+      <c r="G34" s="46">
+        <v>100.06100000000001</v>
+      </c>
+      <c r="H34" s="55"/>
     </row>
     <row r="35" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="5"/>
@@ -2916,6 +2939,39 @@
     </row>
   </sheetData>
   <mergeCells count="49">
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="C3:H3"/>
+    <mergeCell ref="C4:H4"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="A32:C32"/>
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="D30:H30"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="C5:H5"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="C13:D14"/>
+    <mergeCell ref="A20:C20"/>
     <mergeCell ref="A25:C25"/>
     <mergeCell ref="D33:F33"/>
     <mergeCell ref="A15:A16"/>
@@ -2932,39 +2988,6 @@
     <mergeCell ref="D23:F23"/>
     <mergeCell ref="A22:C22"/>
     <mergeCell ref="A26:C26"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="C5:H5"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="C13:D14"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="A34:C34"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="A32:C32"/>
-    <mergeCell ref="A33:C33"/>
-    <mergeCell ref="D30:H30"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="C3:H3"/>
-    <mergeCell ref="C4:H4"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="C6:H6"/>
   </mergeCells>
   <pageMargins left="0.83575581395348841" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2979,8 +3002,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9155482F-CBC8-4004-BBFC-A0A13B20B0E7}">
   <dimension ref="A1:P22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3029,7 +3052,7 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="B2" s="21"/>
       <c r="C2" s="22">
@@ -3051,7 +3074,7 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="B3" s="21"/>
       <c r="C3" s="22">
@@ -3073,7 +3096,7 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="B4" s="21"/>
       <c r="C4" s="22">
@@ -3095,7 +3118,7 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="16" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="B5" s="21"/>
       <c r="C5" s="22">
@@ -3117,7 +3140,7 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="B6" s="21"/>
       <c r="C6" s="22">
@@ -3183,7 +3206,7 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="16" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="B9" s="21"/>
       <c r="C9" s="22">
@@ -3205,7 +3228,7 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="16" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="B10" s="21"/>
       <c r="C10" s="22">
@@ -3227,7 +3250,7 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="16" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="B11" s="21"/>
       <c r="C11" s="22">
@@ -3249,7 +3272,7 @@
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="16" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="B12" s="21"/>
       <c r="C12" s="22">
@@ -3271,7 +3294,7 @@
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="16" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="B13" s="21"/>
       <c r="C13" s="22">
@@ -3293,7 +3316,7 @@
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="16" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="B14" s="21"/>
       <c r="C14" s="22">
@@ -3315,7 +3338,7 @@
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="16" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="B15" s="21"/>
       <c r="C15" s="22">
@@ -3340,7 +3363,7 @@
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="16" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="B16" s="21"/>
       <c r="C16" s="22">
@@ -3362,7 +3385,7 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="16" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="B17" s="21"/>
       <c r="C17" s="22">
@@ -3384,7 +3407,7 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="16" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="B18" s="21"/>
       <c r="C18" s="22">
@@ -3405,7 +3428,7 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="16" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="B19" s="21"/>
       <c r="C19" s="22">
@@ -3426,7 +3449,7 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="16" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="B20" s="21"/>
       <c r="C20" s="22">
@@ -3447,7 +3470,7 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="16" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="B21" s="21"/>
       <c r="C21" s="19">
